--- a/QLDS/Backend/src/main/resources/Bien_ban_giai_the.xlsx
+++ b/QLDS/Backend/src/main/resources/Bien_ban_giai_the.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EAE02A2A-8049-46E9-BC10-6FD901914D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0392CA6D-336C-4347-B1E2-38EECF04CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="29100" windowHeight="16500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="9300" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phần Điện" sheetId="11" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Phần Hãm" sheetId="14" r:id="rId4"/>
     <sheet name="Phần Cơ Khí" sheetId="15" r:id="rId5"/>
     <sheet name="Phần Truyền Động - Tổng Hợp" sheetId="16" r:id="rId6"/>
-    <sheet name="Phân loại phế liệu" sheetId="17" r:id="rId7"/>
+    <sheet name="Thu hồi phế liệu" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Phần Cơ Khí'!$B$2:$G$31</definedName>
@@ -22,11 +22,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Phần Động Cơ'!$B$2:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Phần Hãm'!$B$2:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Phần Khung Gầm'!$B$2:$G$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Phân loại phế liệu'!$B$2:$F$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Phần Truyền Động - Tổng Hợp'!$B$2:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Thu hồi phế liệu'!$B$2:$I$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O21"/>
+  <oleSize ref="A1:P21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>Mẫu số:  02 /ĐS - ĐMTX</t>
   </si>
@@ -216,9 +216,6 @@
     </r>
   </si>
   <si>
-    <t>Phân loại phế liệu</t>
-  </si>
-  <si>
     <t>Phân loại</t>
   </si>
   <si>
@@ -226,6 +223,120 @@
   </si>
   <si>
     <t>Ngày vào sửa chữa :  {0}</t>
+  </si>
+  <si>
+    <t>Dương Văn Hồng</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…………………………………....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…………………………………....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…………………………………....</t>
+    </r>
+  </si>
+  <si>
+    <t>(Ký, ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>CHỦ TỊCH HỘI ĐỒNG</t>
+  </si>
+  <si>
+    <t>UỶ VIÊN HỘI ĐỒNG</t>
+  </si>
+  <si>
+    <t>( Phế liệu)</t>
+  </si>
+  <si>
+    <t>(để khôi phục)</t>
+  </si>
+  <si>
+    <t>(sử dụng lại)</t>
+  </si>
+  <si>
+    <t>Loại 3</t>
+  </si>
+  <si>
+    <t>Loại 2</t>
+  </si>
+  <si>
+    <t>Loại 1</t>
+  </si>
+  <si>
+    <t>Trạng thái hư hỏng</t>
+  </si>
+  <si>
+    <t>II. Danh sách VTPT:</t>
+  </si>
+  <si>
+    <t>Uỷ viên</t>
+  </si>
+  <si>
+    <t>4. Trần Ngọc Thống</t>
+  </si>
+  <si>
+    <t>3. Lê Hoài Anh</t>
+  </si>
+  <si>
+    <t>2. Hồ Nam Dương</t>
+  </si>
+  <si>
+    <t>Chủ tịch HĐ</t>
+  </si>
+  <si>
+    <t>1. Dương Văn Hồng</t>
+  </si>
+  <si>
+    <t>I. Hội đồng thu hồi VTPT:</t>
+  </si>
+  <si>
+    <t>Thu hồi vật tư phụ tùng trong sửa chữa đầu máy</t>
+  </si>
+  <si>
+    <t>BIÊN BẢN</t>
+  </si>
+  <si>
+    <t>CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Mẫu số: 02/ĐS-ĐMTX</t>
+  </si>
+  <si>
+    <t>Nghệ An, ngày {0} tháng {1} năm {2}</t>
+  </si>
+  <si>
+    <t>Đvt</t>
   </si>
 </sst>
 </file>
@@ -235,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +446,32 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -471,11 +608,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,11 +691,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,28 +772,53 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A907057D-1A99-49EE-879A-08790306255A}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{C82749C3-3578-480E-A362-C4F71E6998A5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1950,23 +2163,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1">
+        <xdr:cNvPr id="2" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DBF80E-EDD7-4744-B032-7EAA95718084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B07440A-F633-43A0-A80D-21D12AE3501E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,170 +2189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E322FE7C-F1CC-44E1-ADD5-F9D90336F66C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A1570F-0ACE-4DD7-AE04-CDFC1D9E3EF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1085850" y="762000"/>
-          <a:ext cx="1685925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BD268C-AC87-41C1-9FED-794E86A246F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4914900" y="762000"/>
-          <a:ext cx="1000125" cy="0"/>
+          <a:off x="4464844" y="702470"/>
+          <a:ext cx="1928812" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2432,9 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB3937A-82E5-45E7-B9BB-2175AEB3EC52}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2464,95 +2513,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -2560,55 +2609,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -2668,14 +2717,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -3659,6 +3708,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D5:G5"/>
@@ -3670,14 +3727,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3690,9 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B626F3-0A07-4D85-A375-0A1B8C9006B8}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3722,95 +3769,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -3818,55 +3865,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -3926,14 +3973,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -4917,6 +4964,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -4925,17 +4983,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4948,9 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6583C1-9410-460C-A388-0FF15C3D7DD7}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4980,95 +5025,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -5076,55 +5121,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -5184,14 +5229,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -6175,6 +6220,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -6183,17 +6239,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6206,9 +6251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4A4F-74B0-4F4D-A065-77099B60F397}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6238,95 +6281,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -6334,55 +6377,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -6442,14 +6485,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -7433,6 +7476,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -7441,17 +7495,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7464,9 +7507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931A30B-498A-4714-B6A9-1AA219007D7B}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7496,95 +7537,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -7592,55 +7633,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -7700,14 +7741,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -8691,6 +8732,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -8699,17 +8751,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8722,9 +8763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4767DB0-3564-4EE7-83C1-7672E0E70FC9}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8754,95 +8793,95 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -8850,55 +8889,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -8958,14 +8997,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -9949,6 +9988,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -9957,17 +10007,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9977,1229 +10016,405 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F4ACFA-C77E-4ED6-94C8-2F5D6342115A}">
-  <dimension ref="A1:Q152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC2ED4-C43F-48B0-89E4-628B0741263E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="5.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="7" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7" style="30" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="27"/>
+    <col min="9" max="9" width="10.85546875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75">
+      <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75">
+      <c r="B4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="42" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="2:9" ht="16.5">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="2:9" ht="16.5">
+      <c r="B7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75">
+      <c r="B8" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B10" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B11" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B12" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B13" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B14" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B15" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="17" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="2:9" ht="45.6" customHeight="1">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="72"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75">
+      <c r="B24" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75">
+      <c r="B27" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="29"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75">
+      <c r="B28" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75">
+      <c r="B29" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="6" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.149999999999999" customHeight="1">
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.100000000000001" customHeight="1">
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.100000000000001" customHeight="1">
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.100000000000001" customHeight="1">
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1">
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.100000000000001" customHeight="1">
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="7:17" ht="17.100000000000001" customHeight="1">
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="7:17" ht="17.100000000000001" customHeight="1">
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="7:17" ht="17.100000000000001" customHeight="1">
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="7:17" ht="17.100000000000001" customHeight="1">
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="7:17" ht="17.100000000000001" customHeight="1">
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="7:17">
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K39" s="3"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K40" s="3"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K41" s="3"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K42" s="3"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K43" s="3"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K44" s="3"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K45" s="3"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K46" s="3"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K47" s="3"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K48" s="3"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K49" s="3"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K50" s="3"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K51" s="3"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K52" s="3"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K53" s="3"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K54" s="3"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K55" s="3"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K56" s="3"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K57" s="3"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K58" s="3"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K59" s="3"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K60" s="3"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K61" s="3"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K62" s="3"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K63" s="3"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K64" s="3"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K65" s="3"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K66" s="3"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K67" s="3"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K68" s="3"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K69" s="3"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K70" s="3"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K71" s="3"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K72" s="3"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K73" s="3"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K74" s="3"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K75" s="3"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K76" s="3"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K77" s="3"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K78" s="3"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K79" s="3"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K80" s="3"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K81" s="3"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K82" s="3"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K83" s="3"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K84" s="3"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K85" s="3"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K86" s="3"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K87" s="3"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K88" s="3"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K89" s="3"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K90" s="3"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K91" s="3"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K92" s="3"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K93" s="3"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K94" s="3"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K95" s="3"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K96" s="3"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K97" s="3"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K98" s="3"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K99" s="3"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K100" s="3"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K101" s="3"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K102" s="3"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K103" s="3"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K104" s="3"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K105" s="3"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K106" s="3"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-    </row>
-    <row r="107" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K107" s="3"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K108" s="3"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K109" s="3"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K110" s="3"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K111" s="3"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-    </row>
-    <row r="112" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K112" s="3"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K113" s="3"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-    </row>
-    <row r="114" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K114" s="3"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-    </row>
-    <row r="115" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K115" s="3"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-    </row>
-    <row r="116" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K116" s="3"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K117" s="3"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K118" s="3"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K119" s="3"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-    </row>
-    <row r="120" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K120" s="3"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K121" s="3"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-    </row>
-    <row r="122" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K122" s="3"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-    </row>
-    <row r="123" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K123" s="3"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-    </row>
-    <row r="124" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K124" s="3"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-    </row>
-    <row r="125" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K125" s="3"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-    </row>
-    <row r="126" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K126" s="3"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-    </row>
-    <row r="127" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K127" s="3"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-    </row>
-    <row r="128" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K128" s="3"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-    </row>
-    <row r="129" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K129" s="3"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-    </row>
-    <row r="130" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K130" s="3"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-    </row>
-    <row r="131" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K131" s="3"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-    </row>
-    <row r="132" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K132" s="3"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-    </row>
-    <row r="133" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K133" s="3"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-    </row>
-    <row r="134" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K134" s="3"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-    </row>
-    <row r="135" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K135" s="3"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-    </row>
-    <row r="136" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K136" s="3"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
-    </row>
-    <row r="137" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K137" s="3"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-    </row>
-    <row r="138" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K138" s="3"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-    </row>
-    <row r="139" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K139" s="3"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K140" s="3"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-    </row>
-    <row r="141" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K141" s="3"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-    </row>
-    <row r="142" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K142" s="3"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-    </row>
-    <row r="143" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K143" s="3"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-    </row>
-    <row r="144" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K144" s="3"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-    </row>
-    <row r="145" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K145" s="3"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K146" s="3"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K147" s="3"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-    </row>
-    <row r="148" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K148" s="3"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-    </row>
-    <row r="149" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K149" s="3"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-    </row>
-    <row r="150" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K150" s="3"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-    </row>
-    <row r="151" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K151" s="3"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
-    </row>
-    <row r="152" spans="7:17" ht="20.100000000000001" customHeight="1">
-      <c r="K152" s="3"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="37">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.53" right="0.44" top="0.38" bottom="0.33" header="0.25" footer="0.24"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/QLDS/Backend/src/main/resources/Bien_ban_giai_the.xlsx
+++ b/QLDS/Backend/src/main/resources/Bien_ban_giai_the.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0392CA6D-336C-4347-B1E2-38EECF04CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E8AA9-FCE6-471D-873F-A009072537C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="9300" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phần Điện" sheetId="11" r:id="rId1"/>
@@ -23,10 +28,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Phần Hãm'!$B$2:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Phần Khung Gầm'!$B$2:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Phần Truyền Động - Tổng Hợp'!$B$2:$G$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Thu hồi phế liệu'!$B$2:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Thu hồi phế liệu'!$B$2:$I$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="65">
   <si>
     <t>Mẫu số:  02 /ĐS - ĐMTX</t>
   </si>
@@ -330,13 +334,25 @@
     <t>CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
-    <t>Mẫu số: 02/ĐS-ĐMTX</t>
-  </si>
-  <si>
     <t>Nghệ An, ngày {0} tháng {1} năm {2}</t>
   </si>
   <si>
     <t>Đvt</t>
+  </si>
+  <si>
+    <t>Loại đầu máy :  {0}</t>
+  </si>
+  <si>
+    <t>Ngày vào sửa chữa:  {0}</t>
+  </si>
+  <si>
+    <t>Số hiệu đầu máy: {0}</t>
+  </si>
+  <si>
+    <t>Cấp sửa chữa: {0}</t>
+  </si>
+  <si>
+    <t>Ngày xuất xưởng:</t>
   </si>
 </sst>
 </file>
@@ -484,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -607,13 +623,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,35 +763,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,6 +799,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,37 +859,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2513,86 +2577,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -2609,55 +2673,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -2717,14 +2781,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -3708,14 +3772,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D5:G5"/>
@@ -3727,6 +3783,14 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3769,86 +3833,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -3865,55 +3929,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -3973,14 +4037,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -4964,17 +5028,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -4983,6 +5036,17 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5025,86 +5089,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -5121,55 +5185,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -5229,14 +5293,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -6220,17 +6284,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -6239,6 +6292,17 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6281,86 +6345,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -6377,55 +6441,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -6485,14 +6549,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -7476,17 +7540,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -7495,6 +7548,17 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7537,86 +7601,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -7633,55 +7697,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -7741,14 +7805,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -8732,17 +8796,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -8751,6 +8804,17 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8793,86 +8857,86 @@
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="12"/>
@@ -8889,55 +8953,55 @@
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.15" customHeight="1">
@@ -8997,14 +9061,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -9988,17 +10052,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:B13"/>
@@ -10007,6 +10060,17 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.2" top="0.23" bottom="0.33" header="0.25" footer="0.39"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10020,7 +10084,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I30"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10036,10 +10100,8 @@
     <col min="10" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="70" t="s">
-        <v>58</v>
-      </c>
+    <row r="2" spans="2:11">
+      <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -10048,47 +10110,47 @@
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:11" ht="15.75">
+      <c r="B3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75">
-      <c r="B4" s="64" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75">
+      <c r="B4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="2:9" ht="16.5">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5">
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="D5" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="40"/>
@@ -10098,319 +10160,373 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="2:11" ht="16.5">
+      <c r="B7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75">
-      <c r="B8" s="64" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75">
+      <c r="B8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B10" s="69" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" s="42" customFormat="1" ht="15.75">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="15.75">
+      <c r="B10" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="15.75">
+      <c r="B11" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B13" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B11" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B12" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B13" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="67"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B14" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+    <row r="14" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B14" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="67"/>
+      <c r="F14" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="61"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B15" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+    <row r="15" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="61"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="17" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B17" s="72" t="s">
+    <row r="16" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B16" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B17" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B18" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B20" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C20" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="73" t="s">
+      <c r="D20" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F20" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="33" t="s">
+    <row r="21" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H21" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="72"/>
-    </row>
-    <row r="19" spans="2:9" ht="45.6" customHeight="1">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="33" t="s">
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9" ht="45.6" customHeight="1">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="72"/>
-    </row>
-    <row r="20" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75">
-      <c r="B24" s="64" t="s">
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.899999999999999" customHeight="1">
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="2:9" ht="15">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75">
+      <c r="B27" s="66" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="31"/>
-      <c r="G25" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="29"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75">
-      <c r="B27" s="60" t="s">
-        <v>36</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
-      <c r="E27" s="29"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.75">
-      <c r="B28" s="60" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="31"/>
+      <c r="G28" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75">
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75">
+      <c r="B30" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75">
+      <c r="B31" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="29"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75">
-      <c r="B29" s="60" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="29"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75">
+      <c r="B32" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="29"/>
-      <c r="G29" s="64" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="29"/>
+      <c r="G32" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="28"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="41">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G29:I29"/>
     <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.53" right="0.44" top="0.38" bottom="0.33" header="0.25" footer="0.24"/>
